--- a/doc/FSEMI_AES_Test_Plan_Rev1.1.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3117E5B-CB7A-4862-B319-FAD3C82B7847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -24,17 +24,40 @@
     <definedName name="Total_T">#REF!</definedName>
     <definedName name="WindowOffset">[1]calcs!$D$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+  <si>
+    <t>HISTORY</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>- The history is used for recording all modification of this document</t>
+  </si>
+  <si>
+    <t>- Please update exactly info to review correctly in the future</t>
+  </si>
   <si>
     <t>No</t>
   </si>
@@ -45,325 +68,77 @@
     <t>Content</t>
   </si>
   <si>
+    <t>Updated by</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
     <t>Remark</t>
   </si>
   <si>
-    <t>Revision</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>HISTORY</t>
-  </si>
-  <si>
-    <t>Updated by</t>
-  </si>
-  <si>
-    <t>NO CONTENT HERE
-PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
-  </si>
-  <si>
-    <t>- The history is used for recording all modification of this document</t>
-  </si>
-  <si>
-    <t>- Please update exactly info to review correctly in the future</t>
-  </si>
-  <si>
-    <t>In-charge</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>Generate</t>
-  </si>
-  <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Checking Method</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Test Case Name</t>
-  </si>
-  <si>
     <t>Test Category</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Reference Test Plan</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Test Item Quantity</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>↑</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you need to review by higher level engineer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you do not need to review by higher level engineer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The test item which need to do in advance </t>
-  </si>
-  <si>
-    <t>Other test item</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Guideline: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-This one is very importance, please focus 3 points
-01. Target Check: What need to verification ? 
-02. Setting: How to set ?
-03. Expectation: If the function is correct, what is the result and vice - versa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Guideline: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-The way which is applied to check, for example: WaveformChecking, SVA, ….</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Guideline: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-Describle detailed info: signal name and its value, register name and its value</t>
-    </r>
-  </si>
-  <si>
-    <t>PhuocHVD</t>
+    <t xml:space="preserve">Functional Tests </t>
   </si>
   <si>
     <t>PhuocHVD
 VinhNH12</t>
   </si>
   <si>
+    <t>Reference Test Plan</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
     <t>FSEMI_SPI_Test_Plan_Hoang_Rev0.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional Tests </t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>Test Item Quantity</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>In-charge</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Generate</t>
+  </si>
+  <si>
+    <t>Checking Method</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Reset Test</t>
+  </si>
+  <si>
     <t>AES_RESET_TEST</t>
-  </si>
-  <si>
-    <t>AES_RESET_DURING_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>AES_DATA_CHANGE_DURING_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>AES_KEY_CHANGE_DURING_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>Reset Test</t>
-  </si>
-  <si>
-    <t>Encryption Test</t>
-  </si>
-  <si>
-    <t>AES_CONTINUOUS_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>AES_BASIC_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>Decryption Test</t>
-  </si>
-  <si>
-    <t>AES_BASIC_DECRYPTION</t>
-  </si>
-  <si>
-    <t>AES_CONTINUOUS_DECRYPTION</t>
-  </si>
-  <si>
-    <t>AES_DATA_CHANGE_DURING_DECRYPTION</t>
-  </si>
-  <si>
-    <t>AES_KEY_CHANGE_DURING_DECRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verify AES IP encrypts a single data block correctly </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verify AES IP behavior when the decryption key changes during an decryption process.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verify AES IP behavior when the encryption key changes during an encryption process.</t>
-    </r>
-  </si>
-  <si>
-    <t>01. Target Check: Verify AES IP behavior when input data changes during an decryption process.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verify AES IP decrypts a single data block correctly </t>
-    </r>
   </si>
   <si>
     <t>VinhNH12</t>
@@ -381,6 +156,9 @@
       </rPr>
       <t>Ensure the AES IP returns to the default state after reset.</t>
     </r>
+  </si>
+  <si>
+    <t>AES_RESET_DURING_ENCRYPTION</t>
   </si>
   <si>
     <r>
@@ -414,18 +192,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verify AES IP decrypts multiple data blocks correctly.</t>
-    </r>
+    <t>Encryption Test</t>
+  </si>
+  <si>
+    <t>AES_BASIC_ENCRYPTION</t>
   </si>
   <si>
     <r>
@@ -446,8 +216,11 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> Verify AES IP behavior when input data changes during an encryption process.</t>
+      <t xml:space="preserve"> Verify AES IP encrypts a single data block correctly </t>
     </r>
+  </si>
+  <si>
+    <t>AES_CONTINUOUS_ENCRYPTION</t>
   </si>
   <si>
     <r>
@@ -470,6 +243,163 @@
       </rPr>
       <t xml:space="preserve">  Verify AES IP encrypts multiple data blocks correctly.</t>
     </r>
+  </si>
+  <si>
+    <t>Decryption Test</t>
+  </si>
+  <si>
+    <t>AES_BASIC_DECRYPTION</t>
+  </si>
+  <si>
+    <t>PhuocHVD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Verify AES IP decrypts a single data block correctly </t>
+    </r>
+  </si>
+  <si>
+    <t>AES_CONTINUOUS_DECRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01. Target Check: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify AES IP decrypts multiple data blocks correctly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Guideline: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+This one is very importance, please focus 3 points
+01. Target Check: What need to verification ? 
+02. Setting: How to set ?
+03. Expectation: If the function is correct, what is the result and vice - versa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Guideline: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+The way which is applied to check, for example: WaveformChecking, SVA, ….</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Guideline: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+Describle detailed info: signal name and its value, register name and its value</t>
+    </r>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you need to review by higher level engineer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you do not need to review by higher level engineer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The test item which need to do in advance </t>
+  </si>
+  <si>
+    <t>Other test item</t>
+  </si>
+  <si>
+    <t>NO CONTENT HERE
+PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
   </si>
 </sst>
 </file>
@@ -1121,18 +1051,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="D5">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1422,7 +1341,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
       <c r="A1" s="44" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -1440,7 +1359,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="11"/>
@@ -1450,7 +1369,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="12"/>
@@ -1460,7 +1379,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="13"/>
@@ -1478,22 +1397,22 @@
     </row>
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
@@ -1835,108 +1754,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="147" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="19" customWidth="1"/>
     <col min="2" max="2" width="30.453125" style="19" customWidth="1"/>
     <col min="3" max="6" width="8.7265625" style="19"/>
-    <col min="7" max="7" width="29.6328125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" style="19" customWidth="1"/>
     <col min="8" max="8" width="14.81640625" style="19" customWidth="1"/>
     <col min="9" max="9" width="23.81640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="30.6328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" style="19" customWidth="1"/>
     <col min="11" max="11" width="28" style="19" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="48" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" s="49"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="20"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="45" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -1950,16 +1869,16 @@
     </row>
     <row r="12" spans="2:11" ht="16" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="38" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -1968,15 +1887,15 @@
     </row>
     <row r="13" spans="2:11" ht="16" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="G13" s="42" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -1985,7 +1904,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -1999,16 +1918,16 @@
     </row>
     <row r="15" spans="2:11" ht="16" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="42" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -2017,53 +1936,41 @@
     </row>
     <row r="16" spans="2:11" ht="16" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="42" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>60</v>
-      </c>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="42" t="s">
-        <v>64</v>
-      </c>
+      <c r="G17" s="42"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>60</v>
-      </c>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="42" t="s">
-        <v>57</v>
-      </c>
+      <c r="G18" s="42"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -2071,7 +1978,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="45" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -2085,16 +1992,16 @@
     </row>
     <row r="20" spans="2:11" ht="16" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="42" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -2103,53 +2010,41 @@
     </row>
     <row r="21" spans="2:11" ht="16" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="43" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>37</v>
-      </c>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="42" t="s">
-        <v>58</v>
-      </c>
+      <c r="G22" s="42"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>37</v>
-      </c>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="42" t="s">
-        <v>56</v>
-      </c>
+      <c r="G23" s="42"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -2162,26 +2057,26 @@
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="38" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D25" s="24" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G25" s="33"/>
     </row>
@@ -2189,7 +2084,7 @@
       <c r="D26" s="25"/>
       <c r="E26" s="29"/>
       <c r="F26" s="25" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G26" s="34"/>
     </row>
@@ -2197,45 +2092,45 @@
       <c r="D27" s="25"/>
       <c r="E27" s="29"/>
       <c r="F27" s="26" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G27" s="35"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D28" s="25"/>
       <c r="E28" s="30" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G28" s="36"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D29" s="25"/>
       <c r="E29" s="31" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G29" s="37"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D30" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G30" s="34"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D31" s="26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="35"/>
@@ -2271,7 +2166,7 @@
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C5" s="50" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.1.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EF2A70-B86F-4E9B-B915-FA7965F3A44D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>HISTORY</t>
   </si>
@@ -1754,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="147" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
@@ -1876,7 +1876,9 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="G12" s="38" t="s">
         <v>32</v>
       </c>
@@ -1894,6 +1896,9 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="G13" s="42" t="s">
         <v>34</v>
       </c>
@@ -1925,7 +1930,9 @@
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="G15" s="42" t="s">
         <v>37</v>
       </c>
@@ -1943,7 +1950,9 @@
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="G16" s="42" t="s">
         <v>39</v>
       </c>
@@ -1999,7 +2008,9 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="G20" s="42" t="s">
         <v>43</v>
       </c>
@@ -2017,7 +2028,9 @@
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="43" t="s">
         <v>45</v>
       </c>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.1.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7EF2A70-B86F-4E9B-B915-FA7965F3A44D}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE4EF6A-CA63-4F8D-8D12-43E2CB5266C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>HISTORY</t>
   </si>
@@ -138,159 +138,25 @@
     <t>Reset Test</t>
   </si>
   <si>
-    <t>AES_RESET_TEST</t>
-  </si>
-  <si>
     <t>VinhNH12</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ensure the AES IP returns to the default state after reset.</t>
-    </r>
-  </si>
-  <si>
     <t>AES_RESET_DURING_ENCRYPTION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ensure the encryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-  </si>
-  <si>
     <t>Encryption Test</t>
   </si>
   <si>
-    <t>AES_BASIC_ENCRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verify AES IP encrypts a single data block correctly </t>
-    </r>
-  </si>
-  <si>
     <t>AES_CONTINUOUS_ENCRYPTION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  Verify AES IP encrypts multiple data blocks correctly.</t>
-    </r>
-  </si>
-  <si>
     <t>Decryption Test</t>
   </si>
   <si>
-    <t>AES_BASIC_DECRYPTION</t>
-  </si>
-  <si>
     <t>PhuocHVD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verify AES IP decrypts a single data block correctly </t>
-    </r>
-  </si>
-  <si>
     <t>AES_CONTINUOUS_DECRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verify AES IP decrypts multiple data blocks correctly.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -400,6 +266,276 @@
   <si>
     <t>NO CONTENT HERE
 PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
+  </si>
+  <si>
+    <t>AES_RESET_DURING_DECRYPTION</t>
+  </si>
+  <si>
+    <t>Scoreboard checking</t>
+  </si>
+  <si>
+    <t>aes_test_single_enc</t>
+  </si>
+  <si>
+    <t>AES_SINGLE_ENCRYPTION</t>
+  </si>
+  <si>
+    <t>aes_test_continuous_enc</t>
+  </si>
+  <si>
+    <t>AES_SINGLE_DECRYPTION</t>
+  </si>
+  <si>
+    <t>aes_test_single_dec</t>
+  </si>
+  <si>
+    <t>aes_test_continuous_dec</t>
+  </si>
+  <si>
+    <t>Waveform checking</t>
+  </si>
+  <si>
+    <t>AES_RESET</t>
+  </si>
+  <si>
+    <t>aes_test_reset</t>
+  </si>
+  <si>
+    <t>aes_test_reset_enc</t>
+  </si>
+  <si>
+    <t>aes_test_reset_dec</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+02. Setting:
+03. Expectation: The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+02. Setting: 
+03. Expectation:  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Ensure the decryption pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+02. Setting: 
+03. Expectation: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Ensure the encryption pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+02. Setting: 
+03. Expectation: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01. Target Check: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ensure the AES IP returns to the default state after reset.
+02. Setting: 
+03. Expectation: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">01. Target Check: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Verifies the decryption of a single data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+02. Setting: 
+03. Expectation:  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01. Target Check: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the decryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+02. Setting: 
+03. Expectation:  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -842,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,9 +1053,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1051,10 +1184,25 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="D5">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1752,26 +1900,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
-  <dimension ref="B2:K31"/>
+  <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:K11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="19" customWidth="1"/>
     <col min="2" max="2" width="30.453125" style="19" customWidth="1"/>
-    <col min="3" max="6" width="8.7265625" style="19"/>
+    <col min="3" max="5" width="8.7265625" style="19"/>
+    <col min="6" max="6" width="26.36328125" style="19" customWidth="1"/>
     <col min="7" max="7" width="29.54296875" style="19" customWidth="1"/>
     <col min="8" max="8" width="14.81640625" style="19" customWidth="1"/>
     <col min="9" max="9" width="23.81640625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="28" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="19"/>
+    <col min="10" max="10" width="8.7265625" style="19"/>
+    <col min="11" max="11" width="30.54296875" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -1779,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -1803,357 +1952,417 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="49"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="45" t="s">
+    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-    </row>
-    <row r="12" spans="2:11" ht="16" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20">
+        <v>1</v>
+      </c>
       <c r="B12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
+      <c r="C13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="A16" s="20">
+        <v>4</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+      <c r="J16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="A17" s="20">
+        <v>5</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="42" t="s">
+      <c r="C17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="1:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="A19" s="20">
+        <v>7</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
+      <c r="C20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>43</v>
-      </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>42</v>
-      </c>
+    <row r="21" spans="1:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="20"/>
+      <c r="F21" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="2:11" ht="48" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="38" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C23" s="25"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C24" s="25"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C25" s="25"/>
+      <c r="D25" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C26" s="25"/>
+      <c r="D26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="25"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="25"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="25"/>
-      <c r="E28" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="25"/>
-      <c r="E29" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D31" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="35"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="A18:K18"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A15:K15"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2178,171 +2387,171 @@
   <sheetData>
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="C5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
